--- a/02_엔티티정의서 (1 유형).xlsx
+++ b/02_엔티티정의서 (1 유형).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12350" windowHeight="11460" firstSheet="2" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11490" firstSheet="2" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="작성표준" sheetId="1" r:id="rId4"/>
@@ -28,6 +28,345 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <x:si>
+    <x:t xml:space="preserve">사용자ID, 연령대, 성별, 신장, 체중, 허리둘레, 수축기혈압, 이완기혈압, 공복혈당, 총콜레스테롤, 트리글리세라이드, HDL, LDL, 혈색소, 요단백, 혈청크레아티닌, AST, ALT, rGTP, 흡연상태, 음주여부
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사ID, 이름, 소속회사, 연락처, 이메일, 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사ID, 사용자ID, 별점, 내용, 생성일시,수정일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천보험상품ID, 설계사ID, 상품명, 보장내용, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2) 엔티티 영문 타입명 : 영문명 기재, 표준화된 단어/용어 활용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>예측하는 7대 질환에 관한 엔티티. 각 질환별로 코드를 부여하여 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 해당 엔티티의 의미를 쉽게 설명할 수 있는 명사형으로 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 검진을 할 병원의 검진 의료데이터
+사용자 엔티티와 1:1 관계, 식별관계
+제휴 병원 엔티티와 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지 및 전체를 관리하는 관리자
+목록을 조회하거나, 회원의 상태 변경, 보험상품의 추가삭제 등 제한된 기능을 가지고 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(3) 설명(정의) : 엔티티의 정의를 상세히 기록하여 향후 ERD 및 테이블 명세서 작성시 기반 자료가 되도록 기재 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사리뷰/전문가리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MyProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계속성
+추가
+출예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티 
+타입명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티 영문
+ 타입명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동의어/
+유의어</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">가입자,
+사용자
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProcessLog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BioWallet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사추천보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사ID, 보험사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험추천과 상담을 하는 인증 GA보험설계사 엔티티
+설계사추천보험상품 엔티티와 1:N 식별관계
+보험설계사리뷰 엔티티와 1:N 식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 본인이 가입한 보험상품에 리뷰와 별점을 달 수 있음. 
+보험상품 엔티티와 1:N 식별관계
+가입보험상품 엔티티와 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품ID, 보험사ID, 사용자ID, 가입상품ID, 별점, 내용, 생성일시, 수정일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객ID, 비밀번호,
+이름, 주소,성별,나이, 
+이메일, 가입현황,
+사번(관리 사원번호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 보험상품, 설계사추천보험상품을 찜해서 보관할 수 있는 장바구니
+사용자와 1:N 비식별관계
+보험상품엔티티와 1:N 비식별관계
+설계사추천보험상품과 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                         프로젝트의 모든  이해 당사자(stake holder)가 쉽게 읽고 이해할수 있도록 평이하게 기재 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자ID, 관리자이름, 관리자연락처, 관리자이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서 작성 표준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강보험공단의 검진 의료데이터
+사용자 엔티티와 1:1 관계, 식별관계
+1명의 사용자는 1개의 검진 데이터만을 가짐
+사용자 엔티티의 사용자 ID를 슈퍼키로 가짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그ID, 프로세스이름, 시작시간, 종료시간, 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 병원ID, 백혈구수, 혈소판소, T3, TSH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DangerousGroup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강보험공단검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AgentReviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원 검진 데이터 추가 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AgentProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NHISMedicalData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 작성방법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> XX 서비스에 회원으로 가입한 개인 고객 집합으로
+ 사용 고객과 탈퇴고객 정보를  가입현황(가입,탈퇴,심사) 속성으로 구분 한다. 가입현황 변경이력은 관리하지않는다. 사원 엔터티와 1:N 관계를 가지며  모든 고객은 회원 가입시 담당 관리 사원(사번)이 지정된다. 기업고객은 별도의 엔티티에서 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정규직 사원 정보를 관리하는 집합으로 
+부서(dept)정보 와 1:N 관계 형성
+사번은 의미없는 고유한 일련번호 ,
+비정규직, 퇴사자 정보는 별도의 엔티티에서
+관리, 모든 사원은 입사시(경력,신입) 무조건  
+10번  근무부서를 default(부서번호)로 할당
+ 받고  부서배치시점에 수정, 사원이면서 관리자
+인 경우 직무로 구분('MANAGER') .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 병원ID, 보험사ID, 진단서, 입원사실증명서, 수술확인서, 소견서, 외래진료확인서, 장애인증명서, 진료비영수증, 진료세부내역서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공단검진데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찜목록/카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사/전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7대질환위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원검진데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관련속성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자/고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Users</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직원/
+관리직</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이오지갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위험군분류코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서류보관함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Agents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 보험금 청구시, 필요한 청구 서류들을 원큐보험이 대신하여 병원에 청구하고, 이를 보관하는 DB (엔티티)
+사용자 엔티티와 1:1 식별관계
+제휴병원과 1:N 비식별관계를 가진다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입상품ID, 사용자ID, 상품명, 보장내용, 보험료, 보험회사, 납입금액, 납부일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌혈관질환, 심장질환, 고혈압, 당뇨병, 위십이지장궤양, 만성호흡기질환, 간질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니ID, 사용자ID&lt; 보험상품ID, 추천보험상품ID, 설계사ID, 보험사ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민건강보험공단의 오픈API를 활용해서 데이터를 가져올 거임</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 해당 엔티티정의서에 정의된 엔티티명과 동일해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(4) 관련속성 :  엔티티를 구성하는 각 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사번, 근무부서번호,
+사원명, 직무, 급여
+입사일 , 최종학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                     ERD 물리적 엔티티명과  테이블명에 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 이름, 연락처, 이메일, 주민번호, 상태, 납부계좌, 저위험군, 중위험군, 고위험군, 초고위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                      ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담 후 사용자가 보험설계사에 대한 평가와 별점을 남길 수 있음.별점순으로 설계사 목록 상단에 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                         필요시 주요(핵심) 속성에 대해 상세히 기재 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입, 청구, 조회 등 각종 프로세스 진행 시 상태와 시작, 종료 시간을 기록하는 로그 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사의 보험상품
+장바구니와 1:N 비식별관계
+보험상품리뷰와 1:1 식별관계
+보험사와 1:N 식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 가입한 보험상품 엔티티
+사용자 엔티티와 1:N 비식별관계이며, 
+사용자ID를 외래키로 가진다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HospitalMedicalData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InsuranceProduct</x:t>
+  </x:si>
+  <x:si>
     <x:t>원큐보험을 사용하는 사용자 엔티티
 질병예측 알고리즘에 따라 저위험군, 중위험군, 고위험군, 초고위험군에 속하는 질병군 코드가 존재함
 건강보험공단검진의료데이터와 1:1 식별관계
@@ -39,380 +378,31 @@
 보험설계사리뷰와 1:N 비식별관계</x:t>
   </x:si>
   <x:si>
-    <x:t>가입보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담 후 사용자가 보험설계사에 대한 평가와 별점을 남길 수 있음.별점순으로 설계사 목록 상단에 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입, 청구, 조회 등 각종 프로세스 진행 시 상태와 시작, 종료 시간을 기록하는 로그 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자/고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그ID, 프로세스이름, 시작시간, 종료시간, 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사용자ID, 연령대, 성별, 신장, 체중, 허리둘레, 수축기혈압, 이완기혈압, 공복혈당, 총콜레스테롤, 트리글리세라이드, HDL, LDL, 혈색소, 요단백, 혈청크레아티닌, AST, ALT, rGTP, 흡연상태, 음주여부
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌혈관질환, 심장질환, 고혈압, 당뇨병, 위십이지장궤양, 만성호흡기질환, 간질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니ID, 사용자ID&lt; 보험상품ID, 추천보험상품ID, 설계사ID, 보험사ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 해당 엔티티의 의미를 쉽게 설명할 수 있는 명사형으로 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(2) 엔티티 영문 타입명 : 영문명 기재, 표준화된 단어/용어 활용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 검진을 할 병원의 검진 의료데이터
-사용자 엔티티와 1:1 관계, 식별관계
-제휴 병원 엔티티와 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서류작성한 병원담당자의 정보도 적어넣어야되나?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사리뷰/전문가리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 이름, 연락처, 이메일, 주민번호, 상태, 납부계좌, 저위험군, 중위험군, 고위험군, 초고위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서류보관함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입상품ID, 사용자ID, 상품명, 보장내용, 보험료, 보험회사, 납입금액, 납부일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 병원ID, 백혈구수, 혈소판소, T3, TSH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공단검진데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입보험상품 엔티티와 1:N관계가 맞나?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MyProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원검진데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정규직 사원 정보를 관리하는 집합으로 
-부서(dept)정보 와 1:N 관계 형성
-사번은 의미없는 고유한 일련번호 ,
-비정규직, 퇴사자 정보는 별도의 엔티티에서
-관리, 모든 사원은 입사시(경력,신입) 무조건  
-10번  근무부서를 default(부서번호)로 할당
- 받고  부서배치시점에 수정, 사원이면서 관리자
-인 경우 직무로 구분('MANAGER') .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Users</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 본인이 가입한 보험상품에 리뷰와 별점을 달 수 있음. 
-보험상품 엔티티와 1:N 식별관계
-가입보험상품 엔티티와 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험추천과 상담을 하는 인증 GA보험설계사 엔티티
-설계사추천보험상품 엔티티와 1:N 식별관계
-보험설계사리뷰 엔티티와 1:N 식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서 작성 표준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원 검진 데이터 추가 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도출된 엔티티의 정의를 상세히 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 보험금 청구시, 필요한 청구 서류들을 원큐보험이 대신하여 병원에 청구하고, 이를 보관하는 DB (엔티티)
-사용자 엔티티와 1:1 식별관계
-제휴병원과 1:N 비식별관계를 가진다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민건강보험공단의 오픈API를 활용해서 데이터를 가져올 거임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 병원ID, 보험사ID, 진단서, 입원사실증명서, 수술확인서, 소견서, 외래진료확인서, 장애인증명서, 진료비영수증, 진료세부내역서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HospitalMedicalData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                         프로젝트의 모든  이해 당사자(stake holder)가 쉽게 읽고 이해할수 있도록 평이하게 기재 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                         필요시 주요(핵심) 속성에 대해 상세히 기재 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객ID, 비밀번호,
-이름, 주소,성별,나이, 
-이메일, 가입현황,
-사번(관리 사원번호)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품ID, 보험사ID, 사용자ID, 가입상품ID, 별점, 내용, 생성일시, 수정일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> XX 서비스에 회원으로 가입한 개인 고객 집합으로
- 사용 고객과 탈퇴고객 정보를  가입현황(가입,탈퇴,심사) 속성으로 구분 한다. 가입현황 변경이력은 관리하지않는다. 사원 엔터티와 1:N 관계를 가지며  모든 고객은 회원 가입시 담당 관리 사원(사번)이 지정된다. 기업고객은 별도의 엔티티에서 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(3) 설명(정의) : 엔티티의 정의를 상세히 기록하여 향후 ERD 및 테이블 명세서 작성시 기반 자료가 되도록 기재 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 해당 엔티티정의서에 정의된 엔티티명과 동일해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(4) 관련속성 :  엔티티를 구성하는 각 속성명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사번, 근무부서번호,
-사원명, 직무, 급여
-입사일 , 최종학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                      ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                                     ERD 물리적 엔티티명과  테이블명에 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 보험상품, 설계사추천보험상품을 찜해서 보관할 수 있는 장바구니
-사용자와 1:N 비식별관계
-보험상품엔티티와 1:N 비식별관계
-설계사추천보험상품과 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티 
-타입명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티 영문
- 타입명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계속성
-추가
-출예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동의어/
-유의어</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">가입자,
-사용자
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험리뷰</x:t>
-  </x:si>
-  <x:si>
     <x:t>보험설계사가 추천해주는 보험상품, 하나보험뿐만 아니라 삼성생명, DB손해보험 등 타사의 보험 상품까지 추천 가능하다
 보험설계사와 1:N 식별관계
 보험설계사리뷰와 1:N 식별관계</x:t>
   </x:si>
   <x:si>
-    <x:t>건강보험공단의 검진 의료데이터
-사용자 엔티티와 1:1 관계, 식별관계
-1명의 사용자는 1개의 검진 데이터만을 가짐
-사용자 엔티티의 사용자 ID를 슈퍼키로 가짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강보험공단검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NHISMedicalData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찜목록/카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관련속성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직원/
-관리직</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 작성방법</x:t>
-  </x:si>
-  <x:si>
     <x:t>(1) 엔티티 타입명 : (한글) 엔티티명 기재</x:t>
   </x:si>
   <x:si>
-    <x:t>프로세스로그</x:t>
+    <x:t>서류작성한 병원담당자의 정보도 적어넣어야되나?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도출된 엔티티의 정의를 상세히 기재한다.</x:t>
   </x:si>
   <x:si>
     <x:t>InsuranceProductReviews</x:t>
   </x:si>
   <x:si>
-    <x:t>DangerousGroup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사ID, 사용자ID, 별점, 내용, 생성일시,수정일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사의 보험상품
-장바구니와 1:N 비식별관계
-보험상품리뷰와 1:1 식별관계
-보험사와 1:N 식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 가입한 보험상품 엔티티
-사용자 엔티티와 1:N 비식별관계이며, 
-사용자ID를 외래키로 가진다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InsuranceProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지 및 전체를 관리하는 관리자
-목록을 조회하거나, 회원의 상태 변경, 보험상품의 추가삭제 등 제한된 기능을 가지고 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProcessLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이오지갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사/전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천보험상품ID, 설계사ID, 상품명, 보장내용, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사ID, 이름, 소속회사, 연락처, 이메일, 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7대질환위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위험군분류코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사추천보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BioWallet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사ID, 보험사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예측하는 7대 질환에 관한 엔티티. 각 질환별로 코드를 부여하여 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Agents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자ID, 관리자이름, 관리자연락처, 관리자이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AgentReviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AgentProduct</x:t>
+    <x:t>가입보험상품 엔티티와 1:N관계가 맞나?</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="8">
-    <x:numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="166" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <x:numFmt numFmtId="167" formatCode="&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\$#,##0.00_);&quot;₩&quot;&quot;₩&quot;\(&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\$#,##0.00&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\)"/>
-    <x:numFmt numFmtId="168" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <x:numFmt numFmtId="169" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
-    <x:numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <x:numFmt numFmtId="171" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-  </x:numFmts>
-  <x:fonts count="24">
+  <x:fonts count="15">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -443,138 +433,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="바탕체"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="MS Sans Serif"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Helv"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Helv"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Helv"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="MS Sans Serif"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineType val="1"/>
-          <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="MS Sans Serif"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Helv"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Helv"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1015,236 +873,236 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1956,7 +1814,7 @@
     </x:row>
     <x:row r="2" spans="1:1" ht="30" customHeight="1">
       <x:c r="A2" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="13.5" customHeight="1">
@@ -1964,12 +1822,12 @@
     </x:row>
     <x:row r="4" spans="1:1" ht="22.5">
       <x:c r="A4" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A5" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" ht="18.75" customHeight="1">
@@ -1977,57 +1835,57 @@
     </x:row>
     <x:row r="7" spans="1:1" ht="22.5">
       <x:c r="A7" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" s="7" customFormat="1" ht="13.550000000000001">
       <x:c r="A12" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" s="7" customFormat="1" ht="23.899999999999999">
       <x:c r="A13" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" s="7" customFormat="1" ht="23.899999999999999">
       <x:c r="A14" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A15" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A16" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="18.75" customHeight="1">
@@ -2065,7 +1923,7 @@
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <x:pageMargins left="0.78736108541488647" right="0.78736108541488647" top="0.77999997138977051" bottom="0.79000002145767212" header="0.39361110329627991" footer="0.39361110329627991"/>
+  <x:pageMargins left="0.78722220659255981" right="0.78722220659255981" top="0.77986109256744385" bottom="0.79000002145767212" header="0.39347222447395325" footer="0.39347222447395325"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;G</x:oddFooter>
@@ -2095,7 +1953,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="25" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="26"/>
       <x:c r="C1" s="27"/>
@@ -2113,59 +1971,59 @@
     </x:row>
     <x:row r="3" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F3" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="114" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B4" s="23" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C4" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D4" s="16" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>54</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F4" s="16" t="s">
-        <x:v>61</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="99" customHeight="1">
       <x:c r="A5" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B5" s="23" t="s">
-        <x:v>58</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="16"/>
     </x:row>
@@ -2366,7 +2224,7 @@
     <x:mergeCell ref="A1:F1"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.77999997138977051" right="0.79000002145767212" top="0.76999998092651367" bottom="0.77999997138977051" header="0.38999998569488525" footer="0.38999998569488525"/>
+  <x:pageMargins left="0.77986109256744385" right="0.79000002145767212" top="0.76986110210418701" bottom="0.77986109256744385" header="0.38986110687255859" footer="0.38986110687255859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10 - &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -2380,8 +2238,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:F29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C6" activeCellId="0" sqref="C6:C6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -2396,7 +2254,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="25" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="26"/>
       <x:c r="C1" s="27"/>
@@ -2414,281 +2272,281 @@
     </x:row>
     <x:row r="3" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F3" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="131.44999999999999">
       <x:c r="A4" s="15" t="s">
-        <x:v>67</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B4" s="23" t="s">
-        <x:v>68</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D4" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="76.5" customHeight="1">
       <x:c r="A5" s="15" t="s">
-        <x:v>42</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="23" t="s">
-        <x:v>38</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="143.40000000000001">
       <x:c r="A6" s="15" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="23" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C6" s="17" t="s">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D6" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F6" s="16"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="66" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="17" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D7" s="16" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E7" s="16" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="D7" s="16" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E7" s="16" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="16"/>
     </x:row>
     <x:row r="8" spans="1:6" ht="51" customHeight="1">
       <x:c r="A8" s="15" t="s">
-        <x:v>100</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="23" t="s">
-        <x:v>99</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F8" s="16"/>
     </x:row>
     <x:row r="9" spans="1:6" ht="83.650000000000006">
       <x:c r="A9" s="15" t="s">
-        <x:v>87</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B9" s="23" t="s">
-        <x:v>95</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D9" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="56.25" customHeight="1">
       <x:c r="A10" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B10" s="23" t="s">
-        <x:v>78</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C10" s="17" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D10" s="16" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D10" s="16" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E10" s="16" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="F10" s="16" t="s">
-        <x:v>20</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="47.799999999999997">
       <x:c r="A11" s="15" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B11" s="23" t="s">
-        <x:v>83</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C11" s="17" t="s">
-        <x:v>81</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D11" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>96</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F11" s="16"/>
     </x:row>
     <x:row r="12" spans="1:6" ht="47.799999999999997">
       <x:c r="A12" s="15" t="s">
-        <x:v>101</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B12" s="23" t="s">
-        <x:v>102</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C12" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="16" t="s">
-        <x:v>88</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
     </x:row>
     <x:row r="13" spans="1:6" ht="59.75">
       <x:c r="A13" s="15" t="s">
-        <x:v>94</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B13" s="23" t="s">
-        <x:v>105</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="17" t="s">
-        <x:v>65</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D13" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
     </x:row>
     <x:row r="14" spans="1:6" ht="35.850000000000001">
       <x:c r="A14" s="15" t="s">
-        <x:v>40</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="23" t="s">
-        <x:v>104</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="17" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D14" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="D14" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="F14" s="16"/>
     </x:row>
     <x:row r="15" spans="1:6" ht="35.850000000000001">
       <x:c r="A15" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B15" s="23" t="s">
-        <x:v>86</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C15" s="17" t="s">
-        <x:v>3</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D15" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F15" s="16"/>
     </x:row>
     <x:row r="16" spans="1:6" ht="21" customHeight="1">
       <x:c r="A16" s="15" t="s">
-        <x:v>91</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B16" s="23" t="s">
-        <x:v>79</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C16" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F16" s="16"/>
     </x:row>
     <x:row r="17" spans="1:6" ht="21" customHeight="1">
       <x:c r="A17" s="15" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B17" s="23" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C17" s="17" t="s">
-        <x:v>84</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>103</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="16"/>
     </x:row>
@@ -2793,7 +2651,7 @@
     <x:mergeCell ref="A1:F1"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.77999997138977051" right="0.79000002145767212" top="0.76999998092651367" bottom="0.77999997138977051" header="0.38999998569488525" footer="0.38999998569488525"/>
+  <x:pageMargins left="0.77986109256744385" right="0.79000002145767212" top="0.76986110210418701" bottom="0.77986109256744385" header="0.38986110687255859" footer="0.38986110687255859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10 - &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>

--- a/02_엔티티정의서 (1 유형).xlsx
+++ b/02_엔티티정의서 (1 유형).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11490" firstSheet="2" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="11450" firstSheet="2" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="작성표준" sheetId="1" r:id="rId4"/>
@@ -28,161 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <x:si>
-    <x:t xml:space="preserve">사용자ID, 연령대, 성별, 신장, 체중, 허리둘레, 수축기혈압, 이완기혈압, 공복혈당, 총콜레스테롤, 트리글리세라이드, HDL, LDL, 혈색소, 요단백, 혈청크레아티닌, AST, ALT, rGTP, 흡연상태, 음주여부
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사ID, 이름, 소속회사, 연락처, 이메일, 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사ID, 사용자ID, 별점, 내용, 생성일시,수정일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천보험상품ID, 설계사ID, 상품명, 보장내용, 보험료</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(2) 엔티티 영문 타입명 : 영문명 기재, 표준화된 단어/용어 활용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>예측하는 7대 질환에 관한 엔티티. 각 질환별로 코드를 부여하여 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 해당 엔티티의 의미를 쉽게 설명할 수 있는 명사형으로 부여한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 검진을 할 병원의 검진 의료데이터
-사용자 엔티티와 1:1 관계, 식별관계
-제휴 병원 엔티티와 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지 및 전체를 관리하는 관리자
-목록을 조회하거나, 회원의 상태 변경, 보험상품의 추가삭제 등 제한된 기능을 가지고 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(3) 설명(정의) : 엔티티의 정의를 상세히 기록하여 향후 ERD 및 테이블 명세서 작성시 기반 자료가 되도록 기재 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사리뷰/전문가리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MyProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계속성
-추가
-출예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티 
-타입명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티 영문
- 타입명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동의어/
-유의어</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">가입자,
-사용자
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProcessLog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BioWallet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사추천보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사ID, 보험사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험추천과 상담을 하는 인증 GA보험설계사 엔티티
-설계사추천보험상품 엔티티와 1:N 식별관계
-보험설계사리뷰 엔티티와 1:N 식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 본인이 가입한 보험상품에 리뷰와 별점을 달 수 있음. 
-보험상품 엔티티와 1:N 식별관계
-가입보험상품 엔티티와 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품ID, 보험사ID, 사용자ID, 가입상품ID, 별점, 내용, 생성일시, 수정일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객ID, 비밀번호,
-이름, 주소,성별,나이, 
-이메일, 가입현황,
-사번(관리 사원번호)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 보험상품, 설계사추천보험상품을 찜해서 보관할 수 있는 장바구니
-사용자와 1:N 비식별관계
-보험상품엔티티와 1:N 비식별관계
-설계사추천보험상품과 1:N 비식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                         프로젝트의 모든  이해 당사자(stake holder)가 쉽게 읽고 이해할수 있도록 평이하게 기재 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자ID, 관리자이름, 관리자연락처, 관리자이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서 작성 표준</x:t>
-  </x:si>
-  <x:si>
     <x:t>건강보험공단의 검진 의료데이터
 사용자 엔티티와 1:1 관계, 식별관계
 1명의 사용자는 1개의 검진 데이터만을 가짐
 사용자 엔티티의 사용자 ID를 슈퍼키로 가짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그ID, 프로세스이름, 시작시간, 종료시간, 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 병원ID, 백혈구수, 혈소판소, T3, TSH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DangerousGroup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강보험공단검진의료데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AgentReviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원 검진 데이터 추가 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AgentProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NHISMedicalData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔티티정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 작성방법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> XX 서비스에 회원으로 가입한 개인 고객 집합으로
- 사용 고객과 탈퇴고객 정보를  가입현황(가입,탈퇴,심사) 속성으로 구분 한다. 가입현황 변경이력은 관리하지않는다. 사원 엔터티와 1:N 관계를 가지며  모든 고객은 회원 가입시 담당 관리 사원(사번)이 지정된다. 기업고객은 별도의 엔티티에서 관리</x:t>
   </x:si>
   <x:si>
     <x:t>정규직 사원 정보를 관리하는 집합으로 
@@ -195,113 +44,31 @@
 인 경우 직무로 구분('MANAGER') .</x:t>
   </x:si>
   <x:si>
-    <x:t>고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 병원ID, 보험사ID, 진단서, 입원사실증명서, 수술확인서, 소견서, 외래진료확인서, 장애인증명서, 진료비영수증, 진료세부내역서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공단검진데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찜목록/카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계사/전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7대질환위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병원검진데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관련속성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용자/고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Users</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직원/
-관리직</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이오지갑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위험군분류코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서류보관함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Agents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험설계사</x:t>
+    <x:t>장바구니ID, 사용자ID&lt; 보험상품ID, 추천보험상품ID, 설계사ID, 보험사ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입상품ID, 사용자ID, 상품명, 보장내용, 보험료, 보험회사, 납입금액, 납부일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌혈관질환, 심장질환, 고혈압, 당뇨병, 위십이지장궤양, 만성호흡기질환, 간질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> XX 서비스에 회원으로 가입한 개인 고객 집합으로
+ 사용 고객과 탈퇴고객 정보를  가입현황(가입,탈퇴,심사) 속성으로 구분 한다. 가입현황 변경이력은 관리하지않는다. 사원 엔터티와 1:N 관계를 가지며  모든 고객은 회원 가입시 담당 관리 사원(사번)이 지정된다. 기업고객은 별도의 엔티티에서 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험추천과 상담을 하는 인증 GA보험설계사 엔티티
+설계사추천보험상품 엔티티와 1:N 식별관계
+보험설계사리뷰 엔티티와 1:N 식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 본인이 가입한 보험상품에 리뷰와 별점을 달 수 있음. 
+보험상품 엔티티와 1:N 식별관계
+가입보험상품 엔티티와 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사용자ID, 연령대, 성별, 신장, 체중, 허리둘레, 수축기혈압, 이완기혈압, 공복혈당, 총콜레스테롤, 트리글리세라이드, HDL, LDL, 혈색소, 요단백, 혈청크레아티닌, AST, ALT, rGTP, 흡연상태, 음주여부
+</x:t>
   </x:si>
   <x:si>
     <x:t>사용자가 보험금 청구시, 필요한 청구 서류들을 원큐보험이 대신하여 병원에 청구하고, 이를 보관하는 DB (엔티티)
@@ -309,62 +76,143 @@
 제휴병원과 1:N 비식별관계를 가진다</x:t>
   </x:si>
   <x:si>
-    <x:t>가입상품ID, 사용자ID, 상품명, 보장내용, 보험료, 보험회사, 납입금액, 납부일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌혈관질환, 심장질환, 고혈압, 당뇨병, 위십이지장궤양, 만성호흡기질환, 간질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니ID, 사용자ID&lt; 보험상품ID, 추천보험상품ID, 설계사ID, 보험사ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민건강보험공단의 오픈API를 활용해서 데이터를 가져올 거임</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  - 해당 엔티티정의서에 정의된 엔티티명과 동일해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(4) 관련속성 :  엔티티를 구성하는 각 속성명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사번, 근무부서번호,
-사원명, 직무, 급여
-입사일 , 최종학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                                     ERD 물리적 엔티티명과  테이블명에 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자ID, 이름, 연락처, 이메일, 주민번호, 상태, 납부계좌, 저위험군, 중위험군, 고위험군, 초고위험군</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                      ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담 후 사용자가 보험설계사에 대한 평가와 별점을 남길 수 있음.별점순으로 설계사 목록 상단에 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">                         필요시 주요(핵심) 속성에 대해 상세히 기재 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입, 청구, 조회 등 각종 프로세스 진행 시 상태와 시작, 종료 시간을 기록하는 로그 엔티티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보험사의 보험상품
-장바구니와 1:N 비식별관계
-보험상품리뷰와 1:1 식별관계
-보험사와 1:N 식별관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 가입한 보험상품 엔티티
-사용자 엔티티와 1:N 비식별관계이며, 
-사용자ID를 외래키로 가진다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HospitalMedicalData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InsuranceProduct</x:t>
+    <x:t>가입보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7대질환위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찜목록/카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직원/
+관리직</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용자/고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원검진데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관련속성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사/전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 작성방법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공단검진데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Users</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서류보관함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위험군분류코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바이오지갑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험설계사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Agents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AgentReviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티정의서 작성 표준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DangerousGroup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강보험공단검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원 검진 데이터 추가 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AgentProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NHISMedicalData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 병원ID, 보험사ID, 진단서, 입원사실증명서, 수술확인서, 소견서, 외래진료확인서, 장애인증명서, 진료비영수증, 진료세부내역서</x:t>
   </x:si>
   <x:si>
     <x:t>원큐보험을 사용하는 사용자 엔티티
@@ -378,11 +226,163 @@
 보험설계사리뷰와 1:N 비식별관계</x:t>
   </x:si>
   <x:si>
+    <x:t>보험상품ID, 보험사ID, 사용자ID, 가입상품ID, 별점, 내용, 생성일시, 수정일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객ID, 비밀번호,
+이름, 주소,성별,나이, 
+이메일, 가입현황,
+사번(관리 사원번호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 검진을 할 병원의 검진 의료데이터
+사용자 엔티티와 1:1 관계, 식별관계
+제휴 병원 엔티티와 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사의 보험상품
+장바구니와 1:N 비식별관계
+보험상품리뷰와 1:1 식별관계
+보험사와 1:N 식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 가입한 보험상품 엔티티
+사용자 엔티티와 1:N 비식별관계이며, 
+사용자ID를 외래키로 가진다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                     ERD 물리적 엔티티명과  테이블명에 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                      ERD의 해당 엔티티에 속성명이 정의된 경우 동일한 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 이름, 연락처, 이메일, 주민번호, 상태, 납부계좌, 저위험군, 중위험군, 고위험군, 초고위험군</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                         프로젝트의 모든  이해 당사자(stake holder)가 쉽게 읽고 이해할수 있도록 평이하게 기재 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민건강보험공단의 오픈API를 활용해서 데이터를 가져올 거임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자ID, 병원ID, 백혈구수, 혈소판소, T3, TSH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사번, 근무부서번호,
+사원명, 직무, 급여
+입사일 , 최종학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(4) 관련속성 :  엔티티를 구성하는 각 속성명을 기재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 해당 엔티티정의서에 정의된 엔티티명과 동일해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 보험상품, 설계사추천보험상품을 찜해서 보관할 수 있는 장바구니
+사용자와 1:N 비식별관계
+보험상품엔티티와 1:N 비식별관계
+설계사추천보험상품과 1:N 비식별관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InsuranceProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HospitalMedicalData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담 후 사용자가 보험설계사에 대한 평가와 별점을 남길 수 있음.별점순으로 설계사 목록 상단에 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                         필요시 주요(핵심) 속성에 대해 상세히 기재 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입, 청구, 조회 등 각종 프로세스 진행 시 상태와 시작, 종료 시간을 기록하는 로그 엔티티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지 및 전체를 관리하는 관리자
+목록을 조회하거나, 회원의 상태 변경, 보험상품의 추가삭제 등 제한된 기능을 가지고 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(3) 설명(정의) : 엔티티의 정의를 상세히 기록하여 향후 ERD 및 테이블 명세서 작성시 기반 자료가 되도록 기재 한다</x:t>
+  </x:si>
+  <x:si>
     <x:t>보험설계사가 추천해주는 보험상품, 하나보험뿐만 아니라 삼성생명, DB손해보험 등 타사의 보험 상품까지 추천 가능하다
 보험설계사와 1:N 식별관계
 보험설계사리뷰와 1:N 식별관계</x:t>
   </x:si>
   <x:si>
+    <x:t>설계사ID, 사용자ID, 별점, 내용, 생성일시,수정일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사ID, 이름, 소속회사, 연락처, 이메일, 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천보험상품ID, 설계사ID, 상품명, 보장내용, 보험료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그ID, 프로세스이름, 시작시간, 종료시간, 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자ID, 관리자이름, 관리자연락처, 관리자이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2) 엔티티 영문 타입명 : 영문명 기재, 표준화된 단어/용어 활용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  - 해당 엔티티의 의미를 쉽게 설명할 수 있는 명사형으로 부여한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예측하는 7대 질환에 관한 엔티티. 각 질환별로 코드를 부여하여 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사리뷰/전문가리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계속성
+추가
+출예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MyProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병원검진의료데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProcessLog</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">가입자,
+사용자
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계사추천보험상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티 
+타입명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BioWallet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동의어/
+유의어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔티티 영문
+ 타입명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보험사ID, 보험사명</x:t>
+  </x:si>
+  <x:si>
     <x:t>(1) 엔티티 타입명 : (한글) 엔티티명 기재</x:t>
   </x:si>
   <x:si>
@@ -392,10 +392,10 @@
     <x:t>도출된 엔티티의 정의를 상세히 기재한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>가입보험상품 엔티티와 1:N관계가 맞나?</x:t>
+  </x:si>
+  <x:si>
     <x:t>InsuranceProductReviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입보험상품 엔티티와 1:N관계가 맞나?</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -433,90 +433,28 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="바탕체"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="바탕체"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="굴림"/>
-          <x:sz val="16"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="굴림"/>
-          <x:sz val="16"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="굴림"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="굴림"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="굴림"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="굴림"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="바탕체"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="굴림"/>
+      <x:sz val="16"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="굴림"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="굴림"/>
+      <x:sz val="20"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -870,7 +808,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="29">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1814,7 +1752,7 @@
     </x:row>
     <x:row r="2" spans="1:1" ht="30" customHeight="1">
       <x:c r="A2" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" ht="13.5" customHeight="1">
@@ -1822,7 +1760,7 @@
     </x:row>
     <x:row r="4" spans="1:1" ht="22.5">
       <x:c r="A4" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" ht="18.75" customHeight="1">
@@ -1835,7 +1773,7 @@
     </x:row>
     <x:row r="7" spans="1:1" ht="22.5">
       <x:c r="A7" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
@@ -1845,47 +1783,47 @@
     </x:row>
     <x:row r="9" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" s="7" customFormat="1" ht="13.550000000000001">
       <x:c r="A12" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" s="7" customFormat="1" ht="23.899999999999999">
       <x:c r="A13" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" s="7" customFormat="1" ht="23.899999999999999">
       <x:c r="A14" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" s="7" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A15" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A16" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" ht="18.75" customHeight="1">
       <x:c r="A17" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" ht="18.75" customHeight="1">
@@ -1923,7 +1861,7 @@
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <x:pageMargins left="0.78722220659255981" right="0.78722220659255981" top="0.77986109256744385" bottom="0.79000002145767212" header="0.39347222447395325" footer="0.39347222447395325"/>
+  <x:pageMargins left="0.78708332777023315" right="0.78708332777023315" top="0.77972221374511719" bottom="0.79000002145767212" header="0.39347222447395325" footer="0.39347222447395325"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10- &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;G</x:oddFooter>
@@ -1953,7 +1891,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="25" t="s">
-        <x:v>40</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="26"/>
       <x:c r="C1" s="27"/>
@@ -1971,59 +1909,59 @@
     </x:row>
     <x:row r="3" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>15</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="114" customHeight="1">
       <x:c r="A4" s="15" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="23" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C4" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F4" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="99" customHeight="1">
       <x:c r="A5" s="15" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B5" s="23" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F5" s="16"/>
     </x:row>
@@ -2224,7 +2162,7 @@
     <x:mergeCell ref="A1:F1"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.77986109256744385" right="0.79000002145767212" top="0.76986110210418701" bottom="0.77986109256744385" header="0.38986110687255859" footer="0.38986110687255859"/>
+  <x:pageMargins left="0.77972221374511719" right="0.79000002145767212" top="0.76972222328186035" bottom="0.77972221374511719" header="0.38972222805023193" footer="0.38972222805023193"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10 - &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
@@ -2239,7 +2177,7 @@
   <x:dimension ref="A1:F29"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
+      <x:selection activeCell="H12" activeCellId="0" sqref="H12:H12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
@@ -2254,7 +2192,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27" customHeight="1">
       <x:c r="A1" s="25" t="s">
-        <x:v>40</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="26"/>
       <x:c r="C1" s="27"/>
@@ -2272,133 +2210,133 @@
     </x:row>
     <x:row r="3" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>15</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="131.44999999999999">
       <x:c r="A4" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B4" s="23" t="s">
-        <x:v>39</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="76.5" customHeight="1">
       <x:c r="A5" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B5" s="23" t="s">
-        <x:v>97</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D5" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F5" s="16" t="s">
-        <x:v>37</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="143.40000000000001">
       <x:c r="A6" s="15" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B6" s="23" t="s">
-        <x:v>68</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D6" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F6" s="16"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="66" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>58</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="23" t="s">
-        <x:v>11</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C7" s="17" t="s">
-        <x:v>96</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D7" s="16" t="s">
-        <x:v>59</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="16"/>
     </x:row>
     <x:row r="8" spans="1:6" ht="51" customHeight="1">
       <x:c r="A8" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B8" s="23" t="s">
-        <x:v>73</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>27</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>84</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="16"/>
     </x:row>
     <x:row r="9" spans="1:6" ht="83.650000000000006">
       <x:c r="A9" s="15" t="s">
-        <x:v>71</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="23" t="s">
-        <x:v>20</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C9" s="17" t="s">
-        <x:v>81</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F9" s="16" t="s">
         <x:v>102</x:v>
@@ -2406,147 +2344,147 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="56.25" customHeight="1">
       <x:c r="A10" s="15" t="s">
-        <x:v>70</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="23" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C10" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="16" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="C10" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D10" s="16" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E10" s="16" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F10" s="16" t="s">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="47.799999999999997">
       <x:c r="A11" s="15" t="s">
-        <x:v>76</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B11" s="23" t="s">
-        <x:v>98</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C11" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D11" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F11" s="16"/>
     </x:row>
     <x:row r="12" spans="1:6" ht="47.799999999999997">
       <x:c r="A12" s="15" t="s">
-        <x:v>80</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12" s="23" t="s">
-        <x:v>78</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D12" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D12" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E12" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
     </x:row>
     <x:row r="13" spans="1:6" ht="59.75">
       <x:c r="A13" s="15" t="s">
-        <x:v>21</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B13" s="23" t="s">
-        <x:v>38</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="17" t="s">
-        <x:v>100</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D13" s="16" t="s">
-        <x:v>74</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
     </x:row>
     <x:row r="14" spans="1:6" ht="35.850000000000001">
       <x:c r="A14" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="23" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C14" s="17" t="s">
-        <x:v>92</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F14" s="16"/>
     </x:row>
     <x:row r="15" spans="1:6" ht="35.850000000000001">
       <x:c r="A15" s="15" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B15" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C15" s="17" t="s">
-        <x:v>94</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D15" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F15" s="16"/>
     </x:row>
-    <x:row r="16" spans="1:6" ht="21" customHeight="1">
+    <x:row r="16" spans="1:6" ht="59.75">
       <x:c r="A16" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="23" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>75</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="16"/>
     </x:row>
-    <x:row r="17" spans="1:6" ht="21" customHeight="1">
+    <x:row r="17" spans="1:6" ht="47.799999999999997">
       <x:c r="A17" s="15" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B17" s="23" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s">
-        <x:v>29</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F17" s="16"/>
     </x:row>
@@ -2651,7 +2589,7 @@
     <x:mergeCell ref="A1:F1"/>
     <x:mergeCell ref="A2:F2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.77986109256744385" right="0.79000002145767212" top="0.76986110210418701" bottom="0.77986109256744385" header="0.38986110687255859" footer="0.38986110687255859"/>
+  <x:pageMargins left="0.77972221374511719" right="0.79000002145767212" top="0.76972222328186035" bottom="0.77972221374511719" header="0.38972222805023193" footer="0.38972222805023193"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:headerFooter>
     <x:oddFooter>&amp;L&amp;"맑은 고딕,Regular"&amp;G&amp;C&amp;"굴림,Regular"&amp;10 - &amp;P -&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;G</x:oddFooter>
